--- a/pabi_budget_plan/xlsx_template/budget_breakdown_unit_base.xlsx
+++ b/pabi_budget_plan/xlsx_template/budget_breakdown_unit_base.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t xml:space="preserve">Budget Breakdown</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t xml:space="preserve">Latest Policy Amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check</t>
   </si>
   <si>
     <t xml:space="preserve">budget_id</t>
@@ -227,7 +224,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -244,10 +241,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -258,10 +251,6 @@
     </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -302,10 +291,6 @@
     </xf>
     <xf numFmtId="166" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -400,139 +385,135 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="17.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="24.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="24.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="13.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.76"/>
     <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="11" min="10" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="19.91"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="7" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="8"/>
     </row>
     <row r="2" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="E2" s="11" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="E2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="0"/>
-      <c r="H2" s="7"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="12" t="s">
+      <c r="B3" s="11"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="10" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="0"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="12" t="s">
+      <c r="B4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="0"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="11"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="13"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="15"/>
+      <c r="B7" s="13"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="15" t="n">
+      <c r="B8" s="13" t="n">
         <f aca="false">SUM(H12:H5000)</f>
         <v>0</v>
       </c>
       <c r="H8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="15" t="n">
+      <c r="B9" s="13" t="n">
         <f aca="false">B8-B7</f>
         <v>0</v>
       </c>
       <c r="H9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="J11" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="K11" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
